--- a/biology/Zoologie/Cryptoheros_sp._Honduras/Cryptoheros_sp._Honduras.xlsx
+++ b/biology/Zoologie/Cryptoheros_sp._Honduras/Cryptoheros_sp._Honduras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoheros sp. Honduras[1] ou Cryptoheros sp. "Honduran red point"[2],[3] est une espèce de poissons de la famille des cichlidae et de l'ordre des Cichliformes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoheros sp. Honduras ou Cryptoheros sp. "Honduran red point", est une espèce de poissons de la famille des cichlidae et de l'ordre des Cichliformes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Vernaculaire, synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archocentrus sp. "HRP", Archocentrus sp. "Honduran Blue"[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archocentrus sp. "HRP", Archocentrus sp. "Honduran Blue".
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. sp. Honduras est une espèce endémique du Honduras en Amérique centrale.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce défend un territoire et la ponte a lieu sur le substrat. Principalement en aquarium ou le déplacement et l'exploration des jeunes est plus difficile, dans un environnement restreint.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cichldae est territorial.
 </t>
